--- a/src/assets/f2dec0718acddf96 (1).xlsx
+++ b/src/assets/f2dec0718acddf96 (1).xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A573993-88AB-524D-9000-E27B197BD47D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9A3900-4C35-3245-A913-07E4E8EED418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="27000" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27000" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="210">
   <si>
     <t>大区分</t>
     <rPh sb="0" eb="3">
@@ -1702,6 +1691,26 @@
     <rPh sb="0" eb="1">
       <t xml:space="preserve">リョウホウウケル </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロバスト撮ってルヒといない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストムズイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おすすめしない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おすすめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2473,10 +2482,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1960" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2860" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="P1" sqref="P1:P1048576"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2609,7 +2618,9 @@
       <c r="O3" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="P3" s="11"/>
+      <c r="P3" s="11" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="50"/>
@@ -2647,7 +2658,9 @@
       <c r="O4" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="P4" s="11"/>
+      <c r="P4" s="11" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="50"/>
@@ -3051,9 +3064,7 @@
       <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>200</v>
-      </c>
+      <c r="F15" s="11"/>
       <c r="G15" s="27"/>
       <c r="H15" s="30"/>
       <c r="I15" s="8" t="s">
@@ -3117,7 +3128,9 @@
       <c r="O16" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="P16" s="11"/>
+      <c r="P16" s="11" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="50"/>
@@ -3131,7 +3144,9 @@
       <c r="E17" s="8">
         <v>1</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>200</v>
+      </c>
       <c r="G17" s="27"/>
       <c r="H17" s="30"/>
       <c r="I17" s="8" t="s">
@@ -3155,7 +3170,9 @@
       <c r="O17" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="P17" s="11"/>
+      <c r="P17" s="11" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="50"/>
@@ -5139,7 +5156,9 @@
       <c r="O68" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="P68" s="11"/>
+      <c r="P68" s="11" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="50"/>
@@ -5297,7 +5316,9 @@
       <c r="O72" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="P72" s="11"/>
+      <c r="P72" s="11" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="50"/>
@@ -5415,7 +5436,9 @@
       <c r="O75" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="P75" s="11"/>
+      <c r="P75" s="11" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="50"/>
@@ -5609,7 +5632,9 @@
       <c r="O80" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="P80" s="11"/>
+      <c r="P80" s="11" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="50"/>
